--- a/data/Both_Birth.xlsx
+++ b/data/Both_Birth.xlsx
@@ -292,7 +292,7 @@
     <t>ALGERIA</t>
   </si>
   <si>
-    <t>VIET NAM</t>
+    <t>VIETNAM</t>
   </si>
   <si>
     <t>76.3</t>
@@ -950,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -960,6 +960,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -975,11 +976,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1635,7 +1639,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
